--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntf3-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>Ntrk2</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.73194913287815</v>
+        <v>3.9319015</v>
       </c>
       <c r="H2">
-        <v>3.73194913287815</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I2">
-        <v>0.4435916482994773</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J2">
-        <v>0.4435916482994773</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.141148546269524</v>
+        <v>0.4046295</v>
       </c>
       <c r="N2">
-        <v>0.141148546269524</v>
+        <v>0.8092590000000001</v>
       </c>
       <c r="O2">
-        <v>0.01382348802344027</v>
+        <v>0.03591080321622319</v>
       </c>
       <c r="P2">
-        <v>0.01382348802344027</v>
+        <v>0.02861811729998201</v>
       </c>
       <c r="Q2">
-        <v>0.5267591948575615</v>
+        <v>1.59096333799425</v>
       </c>
       <c r="R2">
-        <v>0.5267591948575615</v>
+        <v>6.363853351977001</v>
       </c>
       <c r="S2">
-        <v>0.006131983837565954</v>
+        <v>0.01370056822677489</v>
       </c>
       <c r="T2">
-        <v>0.006131983837565954</v>
+        <v>0.009330029206726776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.73194913287815</v>
+        <v>3.9319015</v>
       </c>
       <c r="H3">
-        <v>3.73194913287815</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I3">
-        <v>0.4435916482994773</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J3">
-        <v>0.4435916482994773</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.01620141302701</v>
+        <v>5.268343000000001</v>
       </c>
       <c r="N3">
-        <v>5.01620141302701</v>
+        <v>15.805029</v>
       </c>
       <c r="O3">
-        <v>0.4912654220592199</v>
+        <v>0.4675645961269926</v>
       </c>
       <c r="P3">
-        <v>0.4912654220592199</v>
+        <v>0.5589189293558889</v>
       </c>
       <c r="Q3">
-        <v>18.7202085136883</v>
+        <v>20.71460574421451</v>
       </c>
       <c r="R3">
-        <v>18.7202085136883</v>
+        <v>124.287634465287</v>
       </c>
       <c r="S3">
-        <v>0.2179212383237878</v>
+        <v>0.1783836638543455</v>
       </c>
       <c r="T3">
-        <v>0.2179212383237878</v>
+        <v>0.1822177846439319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.73194913287815</v>
+        <v>3.9319015</v>
       </c>
       <c r="H4">
-        <v>3.73194913287815</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I4">
-        <v>0.4435916482994773</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J4">
-        <v>0.4435916482994773</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.176229448511953</v>
+        <v>0.007945333333333334</v>
       </c>
       <c r="N4">
-        <v>0.176229448511953</v>
+        <v>0.023836</v>
       </c>
       <c r="O4">
-        <v>0.01725916231705786</v>
+        <v>0.0007051470587800246</v>
       </c>
       <c r="P4">
-        <v>0.01725916231705786</v>
+        <v>0.0008429210474796958</v>
       </c>
       <c r="Q4">
-        <v>0.6576793375617775</v>
+        <v>0.03124026805133334</v>
       </c>
       <c r="R4">
-        <v>0.6576793375617775</v>
+        <v>0.187441608308</v>
       </c>
       <c r="S4">
-        <v>0.007656020260491921</v>
+        <v>0.0002690253217271654</v>
       </c>
       <c r="T4">
-        <v>0.007656020260491921</v>
+        <v>0.0002748076650016119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.73194913287815</v>
+        <v>3.9319015</v>
       </c>
       <c r="H5">
-        <v>3.73194913287815</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I5">
-        <v>0.4435916482994773</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J5">
-        <v>0.4435916482994773</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.87719706410516</v>
+        <v>0.002973333333333333</v>
       </c>
       <c r="N5">
-        <v>4.87719706410516</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="O5">
-        <v>0.477651927600282</v>
+        <v>0.0002638828563650704</v>
       </c>
       <c r="P5">
-        <v>0.477651927600282</v>
+        <v>0.0003154411706460349</v>
       </c>
       <c r="Q5">
-        <v>18.20145135426311</v>
+        <v>0.01169085379333334</v>
       </c>
       <c r="R5">
-        <v>18.20145135426311</v>
+        <v>0.07014512276000001</v>
       </c>
       <c r="S5">
-        <v>0.2118824058776317</v>
+        <v>0.0001006756951588486</v>
       </c>
       <c r="T5">
-        <v>0.2118824058776317</v>
+        <v>0.0001028395859965757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.61396678425329</v>
+        <v>3.9319015</v>
       </c>
       <c r="H6">
-        <v>2.61396678425329</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I6">
-        <v>0.3107046192595735</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J6">
-        <v>0.3107046192595735</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.141148546269524</v>
+        <v>0.4633423333333333</v>
       </c>
       <c r="N6">
-        <v>0.141148546269524</v>
+        <v>1.390027</v>
       </c>
       <c r="O6">
-        <v>0.01382348802344027</v>
+        <v>0.04112155775611769</v>
       </c>
       <c r="P6">
-        <v>0.01382348802344027</v>
+        <v>0.04915602512439415</v>
       </c>
       <c r="Q6">
-        <v>0.3689576115941743</v>
+        <v>1.821816415446833</v>
       </c>
       <c r="R6">
-        <v>0.3689576115941743</v>
+        <v>10.930898492681</v>
       </c>
       <c r="S6">
-        <v>0.004295021583162284</v>
+        <v>0.01568855768100548</v>
       </c>
       <c r="T6">
-        <v>0.004295021583162284</v>
+        <v>0.01602576246682311</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.61396678425329</v>
+        <v>3.9319015</v>
       </c>
       <c r="H7">
-        <v>2.61396678425329</v>
+        <v>7.863803000000001</v>
       </c>
       <c r="I7">
-        <v>0.3107046192595735</v>
+        <v>0.3815166189484025</v>
       </c>
       <c r="J7">
-        <v>0.3107046192595735</v>
+        <v>0.3260182739810296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.01620141302701</v>
+        <v>5.120392499999999</v>
       </c>
       <c r="N7">
-        <v>5.01620141302701</v>
+        <v>10.240785</v>
       </c>
       <c r="O7">
-        <v>0.4912654220592199</v>
+        <v>0.4544340129855215</v>
       </c>
       <c r="P7">
-        <v>0.4912654220592199</v>
+        <v>0.3621485660016092</v>
       </c>
       <c r="Q7">
-        <v>13.11218387677702</v>
+        <v>20.13287895133875</v>
       </c>
       <c r="R7">
-        <v>13.11218387677702</v>
+        <v>80.531515805355</v>
       </c>
       <c r="S7">
-        <v>0.1526384359163036</v>
+        <v>0.1733741281693906</v>
       </c>
       <c r="T7">
-        <v>0.1526384359163036</v>
+        <v>0.1180670504125496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.61396678425329</v>
+        <v>0.284443</v>
       </c>
       <c r="H8">
-        <v>2.61396678425329</v>
+        <v>0.853329</v>
       </c>
       <c r="I8">
-        <v>0.3107046192595735</v>
+        <v>0.0275998093145366</v>
       </c>
       <c r="J8">
-        <v>0.3107046192595735</v>
+        <v>0.03537739281082676</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.176229448511953</v>
+        <v>0.4046295</v>
       </c>
       <c r="N8">
-        <v>0.176229448511953</v>
+        <v>0.8092590000000001</v>
       </c>
       <c r="O8">
-        <v>0.01725916231705786</v>
+        <v>0.03591080321622319</v>
       </c>
       <c r="P8">
-        <v>0.01725916231705786</v>
+        <v>0.02861811729998201</v>
       </c>
       <c r="Q8">
-        <v>0.4606579248175205</v>
+        <v>0.1150940288685</v>
       </c>
       <c r="R8">
-        <v>0.4606579248175205</v>
+        <v>0.6905641732110001</v>
       </c>
       <c r="S8">
-        <v>0.00536250145646064</v>
+        <v>0.0009911313210996078</v>
       </c>
       <c r="T8">
-        <v>0.00536250145646064</v>
+        <v>0.00101243437722778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.61396678425329</v>
+        <v>0.284443</v>
       </c>
       <c r="H9">
-        <v>2.61396678425329</v>
+        <v>0.853329</v>
       </c>
       <c r="I9">
-        <v>0.3107046192595735</v>
+        <v>0.0275998093145366</v>
       </c>
       <c r="J9">
-        <v>0.3107046192595735</v>
+        <v>0.03537739281082676</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.87719706410516</v>
+        <v>5.268343000000001</v>
       </c>
       <c r="N9">
-        <v>4.87719706410516</v>
+        <v>15.805029</v>
       </c>
       <c r="O9">
-        <v>0.477651927600282</v>
+        <v>0.4675645961269926</v>
       </c>
       <c r="P9">
-        <v>0.477651927600282</v>
+        <v>0.5589189293558889</v>
       </c>
       <c r="Q9">
-        <v>12.74883112582855</v>
+        <v>1.498543287949</v>
       </c>
       <c r="R9">
-        <v>12.74883112582855</v>
+        <v>13.486889591541</v>
       </c>
       <c r="S9">
-        <v>0.148408660303647</v>
+        <v>0.01290469369533331</v>
       </c>
       <c r="T9">
-        <v>0.148408660303647</v>
+        <v>0.01977309451323002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.06711247775538</v>
+        <v>0.284443</v>
       </c>
       <c r="H10">
-        <v>2.06711247775538</v>
+        <v>0.853329</v>
       </c>
       <c r="I10">
-        <v>0.2457037324409493</v>
+        <v>0.0275998093145366</v>
       </c>
       <c r="J10">
-        <v>0.2457037324409493</v>
+        <v>0.03537739281082676</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.141148546269524</v>
+        <v>0.007945333333333334</v>
       </c>
       <c r="N10">
-        <v>0.141148546269524</v>
+        <v>0.023836</v>
       </c>
       <c r="O10">
-        <v>0.01382348802344027</v>
+        <v>0.0007051470587800246</v>
       </c>
       <c r="P10">
-        <v>0.01382348802344027</v>
+        <v>0.0008429210474796958</v>
       </c>
       <c r="Q10">
-        <v>0.2917699212107657</v>
+        <v>0.002259994449333334</v>
       </c>
       <c r="R10">
-        <v>0.2917699212107657</v>
+        <v>0.020339950044</v>
       </c>
       <c r="S10">
-        <v>0.003396482602712035</v>
+        <v>1.946192436103501E-05</v>
       </c>
       <c r="T10">
-        <v>0.003396482602712035</v>
+        <v>2.982034900520275E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.06711247775538</v>
+        <v>0.284443</v>
       </c>
       <c r="H11">
-        <v>2.06711247775538</v>
+        <v>0.853329</v>
       </c>
       <c r="I11">
-        <v>0.2457037324409493</v>
+        <v>0.0275998093145366</v>
       </c>
       <c r="J11">
-        <v>0.2457037324409493</v>
+        <v>0.03537739281082676</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>5.01620141302701</v>
+        <v>0.002973333333333333</v>
       </c>
       <c r="N11">
-        <v>5.01620141302701</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="O11">
-        <v>0.4912654220592199</v>
+        <v>0.0002638828563650704</v>
       </c>
       <c r="P11">
-        <v>0.4912654220592199</v>
+        <v>0.0003154411706460349</v>
       </c>
       <c r="Q11">
-        <v>10.3690525318023</v>
+        <v>0.0008457438533333334</v>
       </c>
       <c r="R11">
-        <v>10.3690525318023</v>
+        <v>0.00761169468</v>
       </c>
       <c r="S11">
-        <v>0.1207057478191286</v>
+        <v>7.283116517051195E-06</v>
       </c>
       <c r="T11">
-        <v>0.1207057478191286</v>
+        <v>1.115948620265181E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.06711247775538</v>
+        <v>0.284443</v>
       </c>
       <c r="H12">
-        <v>2.06711247775538</v>
+        <v>0.853329</v>
       </c>
       <c r="I12">
-        <v>0.2457037324409493</v>
+        <v>0.0275998093145366</v>
       </c>
       <c r="J12">
-        <v>0.2457037324409493</v>
+        <v>0.03537739281082676</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.176229448511953</v>
+        <v>0.4633423333333333</v>
       </c>
       <c r="N12">
-        <v>0.176229448511953</v>
+        <v>1.390027</v>
       </c>
       <c r="O12">
-        <v>0.01725916231705786</v>
+        <v>0.04112155775611769</v>
       </c>
       <c r="P12">
-        <v>0.01725916231705786</v>
+        <v>0.04915602512439415</v>
       </c>
       <c r="Q12">
-        <v>0.3642860919670073</v>
+        <v>0.1317944833203333</v>
       </c>
       <c r="R12">
-        <v>0.3642860919670073</v>
+        <v>1.186150349883</v>
       </c>
       <c r="S12">
-        <v>0.004240640600105298</v>
+        <v>0.001134947152785552</v>
       </c>
       <c r="T12">
-        <v>0.004240640600105298</v>
+        <v>0.001739012009844561</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.284443</v>
+      </c>
+      <c r="H13">
+        <v>0.853329</v>
+      </c>
+      <c r="I13">
+        <v>0.0275998093145366</v>
+      </c>
+      <c r="J13">
+        <v>0.03537739281082676</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.120392499999999</v>
+      </c>
+      <c r="N13">
+        <v>10.240785</v>
+      </c>
+      <c r="O13">
+        <v>0.4544340129855215</v>
+      </c>
+      <c r="P13">
+        <v>0.3621485660016092</v>
+      </c>
+      <c r="Q13">
+        <v>1.4564598038775</v>
+      </c>
+      <c r="R13">
+        <v>8.738758823265</v>
+      </c>
+      <c r="S13">
+        <v>0.01254229210444004</v>
+      </c>
+      <c r="T13">
+        <v>0.01281187207531655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.224346</v>
+      </c>
+      <c r="H14">
+        <v>9.673038</v>
+      </c>
+      <c r="I14">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J14">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4046295</v>
+      </c>
+      <c r="N14">
+        <v>0.8092590000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.03591080321622319</v>
+      </c>
+      <c r="P14">
+        <v>0.02861811729998201</v>
+      </c>
+      <c r="Q14">
+        <v>1.304665509807</v>
+      </c>
+      <c r="R14">
+        <v>7.827993058842001</v>
+      </c>
+      <c r="S14">
+        <v>0.01123511673924911</v>
+      </c>
+      <c r="T14">
+        <v>0.01147660070550826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.224346</v>
+      </c>
+      <c r="H15">
+        <v>9.673038</v>
+      </c>
+      <c r="I15">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J15">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.268343000000001</v>
+      </c>
+      <c r="N15">
+        <v>15.805029</v>
+      </c>
+      <c r="O15">
+        <v>0.4675645961269926</v>
+      </c>
+      <c r="P15">
+        <v>0.5589189293558889</v>
+      </c>
+      <c r="Q15">
+        <v>16.986960678678</v>
+      </c>
+      <c r="R15">
+        <v>152.882646108102</v>
+      </c>
+      <c r="S15">
+        <v>0.1462830777968633</v>
+      </c>
+      <c r="T15">
+        <v>0.224140858454436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.224346</v>
+      </c>
+      <c r="H16">
+        <v>9.673038</v>
+      </c>
+      <c r="I16">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J16">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.007945333333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.023836</v>
+      </c>
+      <c r="O16">
+        <v>0.0007051470587800246</v>
+      </c>
+      <c r="P16">
+        <v>0.0008429210474796958</v>
+      </c>
+      <c r="Q16">
+        <v>0.025618503752</v>
+      </c>
+      <c r="R16">
+        <v>0.230566533768</v>
+      </c>
+      <c r="S16">
+        <v>0.0002206135428391833</v>
+      </c>
+      <c r="T16">
+        <v>0.0003380330084886233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.224346</v>
+      </c>
+      <c r="H17">
+        <v>9.673038</v>
+      </c>
+      <c r="I17">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J17">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.002973333333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.008920000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0002638828563650704</v>
+      </c>
+      <c r="P17">
+        <v>0.0003154411706460349</v>
+      </c>
+      <c r="Q17">
+        <v>0.009587055440000001</v>
+      </c>
+      <c r="R17">
+        <v>0.08628349896000001</v>
+      </c>
+      <c r="S17">
+        <v>8.255885224557452E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.0001265000182798507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.224346</v>
+      </c>
+      <c r="H18">
+        <v>9.673038</v>
+      </c>
+      <c r="I18">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J18">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.4633423333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.390027</v>
+      </c>
+      <c r="O18">
+        <v>0.04112155775611769</v>
+      </c>
+      <c r="P18">
+        <v>0.04915602512439415</v>
+      </c>
+      <c r="Q18">
+        <v>1.493975999114</v>
+      </c>
+      <c r="R18">
+        <v>13.445783992026</v>
+      </c>
+      <c r="S18">
+        <v>0.01286536252358287</v>
+      </c>
+      <c r="T18">
+        <v>0.01971282969837286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.224346</v>
+      </c>
+      <c r="H19">
+        <v>9.673038</v>
+      </c>
+      <c r="I19">
+        <v>0.3128617500310742</v>
+      </c>
+      <c r="J19">
+        <v>0.4010257063806036</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.120392499999999</v>
+      </c>
+      <c r="N19">
+        <v>10.240785</v>
+      </c>
+      <c r="O19">
+        <v>0.4544340129855215</v>
+      </c>
+      <c r="P19">
+        <v>0.3621485660016092</v>
+      </c>
+      <c r="Q19">
+        <v>16.509917075805</v>
+      </c>
+      <c r="R19">
+        <v>99.05950245483</v>
+      </c>
+      <c r="S19">
+        <v>0.1421750205762941</v>
+      </c>
+      <c r="T19">
+        <v>0.145230884495518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.8652865</v>
+      </c>
+      <c r="H20">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J20">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4046295</v>
+      </c>
+      <c r="N20">
+        <v>0.8092590000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.03591080321622319</v>
+      </c>
+      <c r="P20">
+        <v>0.02861811729998201</v>
+      </c>
+      <c r="Q20">
+        <v>1.15937944385175</v>
+      </c>
+      <c r="R20">
+        <v>4.637517775407001</v>
+      </c>
+      <c r="S20">
+        <v>0.009983986929099581</v>
+      </c>
+      <c r="T20">
+        <v>0.006799053010519196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.8652865</v>
+      </c>
+      <c r="H21">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J21">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.268343000000001</v>
+      </c>
+      <c r="N21">
+        <v>15.805029</v>
+      </c>
+      <c r="O21">
+        <v>0.4675645961269926</v>
+      </c>
+      <c r="P21">
+        <v>0.5589189293558889</v>
+      </c>
+      <c r="Q21">
+        <v>15.0953120752695</v>
+      </c>
+      <c r="R21">
+        <v>90.57187245161701</v>
+      </c>
+      <c r="S21">
+        <v>0.1299931607804505</v>
+      </c>
+      <c r="T21">
+        <v>0.132787191744291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.8652865</v>
+      </c>
+      <c r="H22">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J22">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.007945333333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.023836</v>
+      </c>
+      <c r="O22">
+        <v>0.0007051470587800246</v>
+      </c>
+      <c r="P22">
+        <v>0.0008429210474796958</v>
+      </c>
+      <c r="Q22">
+        <v>0.02276565633800001</v>
+      </c>
+      <c r="R22">
+        <v>0.136593938028</v>
+      </c>
+      <c r="S22">
+        <v>0.000196046269852641</v>
+      </c>
+      <c r="T22">
+        <v>0.0002002600249842579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.8652865</v>
+      </c>
+      <c r="H23">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J23">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.002973333333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.008920000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.0002638828563650704</v>
+      </c>
+      <c r="P23">
+        <v>0.0003154411706460349</v>
+      </c>
+      <c r="Q23">
+        <v>0.008519451860000001</v>
+      </c>
+      <c r="R23">
+        <v>0.05111671116000001</v>
+      </c>
+      <c r="S23">
+        <v>7.336519244359613E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.494208016695672E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.06711247775538</v>
-      </c>
-      <c r="H13">
-        <v>2.06711247775538</v>
-      </c>
-      <c r="I13">
-        <v>0.2457037324409493</v>
-      </c>
-      <c r="J13">
-        <v>0.2457037324409493</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.87719706410516</v>
-      </c>
-      <c r="N13">
-        <v>4.87719706410516</v>
-      </c>
-      <c r="O13">
-        <v>0.477651927600282</v>
-      </c>
-      <c r="P13">
-        <v>0.477651927600282</v>
-      </c>
-      <c r="Q13">
-        <v>10.08171490768368</v>
-      </c>
-      <c r="R13">
-        <v>10.08171490768368</v>
-      </c>
-      <c r="S13">
-        <v>0.1173608614190034</v>
-      </c>
-      <c r="T13">
-        <v>0.1173608614190034</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.8652865</v>
+      </c>
+      <c r="H24">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J24">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.4633423333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.390027</v>
+      </c>
+      <c r="O24">
+        <v>0.04112155775611769</v>
+      </c>
+      <c r="P24">
+        <v>0.04915602512439415</v>
+      </c>
+      <c r="Q24">
+        <v>1.3276085325785</v>
+      </c>
+      <c r="R24">
+        <v>7.965651195471001</v>
+      </c>
+      <c r="S24">
+        <v>0.01143269039874379</v>
+      </c>
+      <c r="T24">
+        <v>0.01167842094935362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.8652865</v>
+      </c>
+      <c r="H25">
+        <v>5.730573000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.2780218217059868</v>
+      </c>
+      <c r="J25">
+        <v>0.2375786268275401</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.120392499999999</v>
+      </c>
+      <c r="N25">
+        <v>10.240785</v>
+      </c>
+      <c r="O25">
+        <v>0.4544340129855215</v>
+      </c>
+      <c r="P25">
+        <v>0.3621485660016092</v>
+      </c>
+      <c r="Q25">
+        <v>14.67139150495125</v>
+      </c>
+      <c r="R25">
+        <v>58.685566019805</v>
+      </c>
+      <c r="S25">
+        <v>0.1263425721353967</v>
+      </c>
+      <c r="T25">
+        <v>0.08603875901822508</v>
       </c>
     </row>
   </sheetData>
